--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1c_techno\Desktop\Модуль\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9767808A-88C1-47E8-9D3C-5E53A899752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2627686F-7F35-42A2-ACDD-F296C164D3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5320A3A-6D81-4938-ADBF-2EEFF4CD535E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5320A3A-6D81-4938-ADBF-2EEFF4CD535E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Приложение №1 к Заключению по результатам пересмотра ОПР при подготовке к разработке проекта Норм выдачи СИЗ</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Члены комиссии по проведению оценки профессиональных рисков на рабочих местах:</t>
+  </si>
+  <si>
+    <t>(должность)</t>
+  </si>
+  <si>
+    <t>(Ф.И.О.)</t>
   </si>
 </sst>
 </file>
@@ -280,9 +286,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -290,78 +363,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -380,9 +393,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,7 +433,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -526,7 +539,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -668,7 +681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9190ABAF-0FD2-4CD2-AEA8-44B4A83A5A2F}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,191 +712,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="18" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="20"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
